--- a/Docker/0828.xlsx
+++ b/Docker/0828.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="環境建置" sheetId="1" r:id="rId1"/>
     <sheet name="課程內容" sheetId="2" r:id="rId2"/>
+    <sheet name="WinSCP" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>1.先下載https://www.vmware.com/go/getworkstation-win</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +84,14 @@
   </si>
   <si>
     <t>下載https://www.vmware.com/go/getworkstation-win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安裝手順</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w-TI-e23Yuw&amp;list=LL&amp;index=32&amp;ab_channel=Websplaining</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,6 +452,561 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>510576</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11995</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>24393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="510576" y="1423359"/>
+          <a:ext cx="2565984" cy="1781556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133094</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>11710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>173936</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>98213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3197659" y="1403188"/>
+          <a:ext cx="4331234" cy="3267025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314740</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>265044</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7669697" y="1399760"/>
+          <a:ext cx="4240695" cy="3252580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>402771</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>17689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>347658</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11985171" y="1417864"/>
+          <a:ext cx="4212087" cy="3268435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>470649</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>515471</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>67269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="圖片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="470649" y="5186082"/>
+          <a:ext cx="4280646" cy="3352834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457760</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>58271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="圖片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4908176" y="5188324"/>
+          <a:ext cx="4021231" cy="1929653"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>67234</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>138035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="圖片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9143999" y="5188324"/>
+          <a:ext cx="4359089" cy="3421358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>187779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="圖片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="394607" y="9538607"/>
+          <a:ext cx="10368643" cy="6773636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>351064</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>20410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="圖片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11049000" y="9470571"/>
+          <a:ext cx="4610100" cy="3408589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>100693</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>44903</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="圖片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="408214" y="16695964"/>
+          <a:ext cx="3978729" cy="3555546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -709,7 +1273,7 @@
   <dimension ref="B2:B20"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B19" sqref="B19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -802,7 +1366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -829,4 +1393,49 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC32" sqref="AC32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
 </file>